--- a/src/test/resources/testData/Locators.xlsx
+++ b/src/test/resources/testData/Locators.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Santosh yadav\eclipse-workspace\WelcomeProject\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E4157DD-E44D-4A99-BE35-4C2EA403F8FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9867206C-D7C7-4818-86BA-FCB9211DB037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -369,7 +369,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
